--- a/Output/April/productivity_TL_valid/productivity_TL_2022-04-02_valid.xlsx
+++ b/Output/April/productivity_TL_valid/productivity_TL_2022-04-02_valid.xlsx
@@ -940,10 +940,10 @@
         <v>5</v>
       </c>
       <c r="T6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U6">
-        <v>0.1785714285714286</v>
+        <v>0.1724137931034483</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -999,10 +999,10 @@
         <v>5</v>
       </c>
       <c r="T7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U7">
-        <v>0.1785714285714286</v>
+        <v>0.1724137931034483</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1916,10 +1916,10 @@
         <v>8</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>0.16</v>
+        <v>0.1568627450980392</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2046,10 +2046,10 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8">
-        <v>0.1458333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.16</v>
+        <v>0.1568627450980392</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.1458333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2435,7 +2435,7 @@
         <v>56</v>
       </c>
       <c r="D3">
-        <v>0.16</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2520,7 +2520,7 @@
         <v>56</v>
       </c>
       <c r="D8">
-        <v>0.1458333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E8">
         <v>1</v>
